--- a/tools/1.xlsx
+++ b/tools/1.xlsx
@@ -29,76 +29,108 @@
 </file>
 
 <file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="ID_372B549E41954F118425AA7FB91986D5" descr="upload_post_object_v2_165115692"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4705350" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
-  <si>
-    <t>分区</t>
-  </si>
-  <si>
-    <t>1-5月</t>
-  </si>
-  <si>
-    <t>6-8月</t>
-  </si>
-  <si>
-    <t>9-10月</t>
-  </si>
-  <si>
-    <t>11-12月</t>
-  </si>
-  <si>
-    <t>4-10月</t>
-  </si>
-  <si>
-    <t>1-12月</t>
-  </si>
-  <si>
-    <t>降雨量(mm)</t>
-  </si>
-  <si>
-    <t>距平(%)</t>
-  </si>
-  <si>
-    <t>金沙江</t>
-  </si>
-  <si>
-    <t>岷沱江</t>
-  </si>
-  <si>
-    <t>嘉陵江</t>
-  </si>
-  <si>
-    <t>长上干区</t>
-  </si>
-  <si>
-    <t>乌江</t>
-  </si>
-  <si>
-    <t>汉江</t>
-  </si>
-  <si>
-    <t>长中干区</t>
-  </si>
-  <si>
-    <t>洞庭湖</t>
-  </si>
-  <si>
-    <t>长下干区</t>
-  </si>
-  <si>
-    <t>鄱阳湖</t>
-  </si>
-  <si>
-    <t>长江上游</t>
-  </si>
-  <si>
-    <t>长江中下游</t>
-  </si>
-  <si>
-    <t>长江流域</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>所有漏洞收集（包含项目已涉及和未涉及的）</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>漏洞名称</t>
+  </si>
+  <si>
+    <t>详细说明</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+  </si>
+  <si>
+    <t>nacos认证授权漏洞</t>
+  </si>
+  <si>
+    <t>nacos旧版本中即使开启授权认证，但默认的加密key是固定写死的，造成信息泄露</t>
+  </si>
+  <si>
+    <t>按照最新的nacos版本进行升级部署，自定义配置key解决默认key问题</t>
+  </si>
+  <si>
+    <t>zk未授权访问</t>
+  </si>
+  <si>
+    <t>zookeeper安装部署时未增加认证，导致泄露zookeeper中的内容。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重新部署zookeeper，添加认证
+</t>
+  </si>
+  <si>
+    <t>Apache Struts类加载器安全绕过漏洞</t>
+  </si>
+  <si>
+    <t>Apache Struts框架是一个一个基于 Java Servlets,JavaBeans, 和 JavaServer Pages (JSP)的Web应用框架的开源项目。    Apache Struts 存在安全绕过漏洞，攻击者利用漏洞绕过某些安全限制和执行未经授权的操作。 参考： http://www.cnvd.org.cn/flaw/show/CNVD-2014-02702</t>
+  </si>
+  <si>
+    <t>建议下载补丁进行修复，网址如下： http://struts.apache.org/</t>
+  </si>
+  <si>
+    <t>Grafana 身份认证绕过漏洞（CVE2023-3128）</t>
+  </si>
+  <si>
+    <t>升级版本至10.0.1、9.5.5、9.4.13、9.3.16、9.2.20 
+或 8.5.27及以上</t>
+  </si>
+  <si>
+    <t>Apache RocketMQ</t>
+  </si>
+  <si>
+    <t>影响版本  5.x &lt;= 5.1.0 及4.x&lt;=4.9.6</t>
+  </si>
+  <si>
+    <t>Spring Security 身份认证绕过漏洞</t>
+  </si>
+  <si>
+    <t>影响版本 Spring Security: 6.1.0 to 6.1.1 6.0.0 to 6.0.4 5.8.0 to 5.8.4 5.7.0 to 5.7.9 5.6.0 to 5.6.11</t>
+  </si>
+  <si>
+    <t>MinIO 信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>RELEASE.2023-03-20T20-16-18Z &gt;MINIO&gt; = RELEASE.2019-12-17T23-16-337</t>
+  </si>
+  <si>
+    <t>Apache Kafka ConnectJNDI注入漏洞</t>
+  </si>
+  <si>
+    <t>2.3.0 &lt;= Apache Kafka &lt;= 3.3.2</t>
   </si>
 </sst>
 </file>
@@ -111,7 +143,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,9 +152,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="黑体"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -279,7 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC8C8C8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -491,19 +543,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -624,151 +663,163 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1081,624 +1132,146 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="112.125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" ht="18" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="15" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3" ht="121.5" spans="1:4">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="4" ht="67.5" spans="1:4">
+      <c r="A4" s="3">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
-        <v>134.3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>427.1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4">
-        <v>132.8</v>
-      </c>
-      <c r="G3" s="4">
-        <v>-12.6</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="I3" s="4">
-        <v>-63.9</v>
-      </c>
-      <c r="J3" s="4">
-        <v>656.9</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="4">
-        <v>699</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.5</v>
+    <row r="5" ht="87" spans="1:4">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
-        <v>186.8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-3.2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>667.3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>46.8</v>
-      </c>
-      <c r="F4" s="4">
-        <v>178</v>
-      </c>
-      <c r="G4" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>20.4</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="J4" s="4">
-        <v>982.5</v>
-      </c>
-      <c r="K4" s="4">
-        <v>27.9</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1052.5</v>
-      </c>
-      <c r="M4" s="4">
-        <v>26.2</v>
+    <row r="6" ht="282.75" spans="1:4">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="str">
+        <f>_xlfn.DISPIMG("ID_372B549E41954F118425AA7FB91986D5",1)</f>
+        <v>=DISPIMG("ID_372B549E41954F118425AA7FB91986D5",1)</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
-        <v>169.9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-18</v>
-      </c>
-      <c r="D5" s="4">
-        <v>692.9</v>
-      </c>
-      <c r="E5" s="4">
-        <v>53.3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>162.1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>-14.8</v>
-      </c>
-      <c r="H5" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-31.9</v>
-      </c>
-      <c r="J5" s="4">
-        <v>969.3</v>
-      </c>
-      <c r="K5" s="4">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="4">
-        <v>1047.7</v>
-      </c>
-      <c r="M5" s="4">
-        <v>18.7</v>
-      </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
-        <v>303.7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>653.5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>33</v>
-      </c>
-      <c r="F6" s="4">
-        <v>272.8</v>
-      </c>
-      <c r="G6" s="4">
-        <v>37.2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>49.8</v>
-      </c>
-      <c r="I6" s="4">
-        <v>-19.2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1107.2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>22.3</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1279.8</v>
-      </c>
-      <c r="M6" s="4">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
-        <v>351.1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5.1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>644.6</v>
-      </c>
-      <c r="E7" s="4">
-        <v>25.9</v>
-      </c>
-      <c r="F7" s="4">
-        <v>365.8</v>
-      </c>
-      <c r="G7" s="4">
-        <v>90.3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>38</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-40</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1210.8</v>
-      </c>
-      <c r="K7" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1399.5</v>
-      </c>
-      <c r="M7" s="4">
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
-        <v>235.4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-1.5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>572.5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>36.9</v>
-      </c>
-      <c r="F8" s="4">
-        <v>182</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>51</v>
-      </c>
-      <c r="I8" s="4">
-        <v>9.2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>853.8</v>
-      </c>
-      <c r="K8" s="4">
-        <v>14.3</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1040.9</v>
-      </c>
-      <c r="M8" s="4">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
-        <v>483.7</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>976.1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>78</v>
-      </c>
-      <c r="F9" s="4">
-        <v>313.9</v>
-      </c>
-      <c r="G9" s="4">
-        <v>96.2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>83.8</v>
-      </c>
-      <c r="I9" s="4">
-        <v>-1.8</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1481.8</v>
-      </c>
-      <c r="K9" s="4">
-        <v>47.9</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1857.5</v>
-      </c>
-      <c r="M9" s="4">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
-        <v>699.4</v>
-      </c>
-      <c r="C10" s="4">
-        <v>15.2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>621.8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4">
-        <v>318.6</v>
-      </c>
-      <c r="G10" s="4">
-        <v>90.8</v>
-      </c>
-      <c r="H10" s="4">
-        <v>55.4</v>
-      </c>
-      <c r="I10" s="4">
-        <v>-50.8</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1241.4</v>
-      </c>
-      <c r="K10" s="4">
-        <v>19.6</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1695.2</v>
-      </c>
-      <c r="M10" s="4">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4">
-        <v>473.2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="4">
-        <v>968.7</v>
-      </c>
-      <c r="E11" s="4">
-        <v>70.3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>226.1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>64.4</v>
-      </c>
-      <c r="H11" s="4">
-        <v>87</v>
-      </c>
-      <c r="I11" s="4">
-        <v>-11.5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1348.9</v>
-      </c>
-      <c r="K11" s="4">
-        <v>44</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1755</v>
-      </c>
-      <c r="M11" s="4">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4">
-        <v>855</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>747.5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="F12" s="4">
-        <v>226.4</v>
-      </c>
-      <c r="G12" s="4">
-        <v>60</v>
-      </c>
-      <c r="H12" s="4">
-        <v>56.6</v>
-      </c>
-      <c r="I12" s="4">
-        <v>-57.7</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1337.2</v>
-      </c>
-      <c r="K12" s="4">
-        <v>13</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1885.5</v>
-      </c>
-      <c r="M12" s="4">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4">
-        <v>188.9</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>555.5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>25.3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>182.8</v>
-      </c>
-      <c r="G13" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="H13" s="4">
-        <v>18.9</v>
-      </c>
-      <c r="I13" s="4">
-        <v>-33</v>
-      </c>
-      <c r="J13" s="4">
-        <v>864.2</v>
-      </c>
-      <c r="K13" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="L13" s="4">
-        <v>946.1</v>
-      </c>
-      <c r="M13" s="4">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>579.1</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="D14" s="4">
-        <v>735</v>
-      </c>
-      <c r="E14" s="4">
-        <v>39.9</v>
-      </c>
-      <c r="F14" s="4">
-        <v>258.1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>65.4</v>
-      </c>
-      <c r="H14" s="4">
-        <v>63.2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>-35.8</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1231.3</v>
-      </c>
-      <c r="K14" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1635.4</v>
-      </c>
-      <c r="M14" s="4">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
-        <v>363.1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>635.7</v>
-      </c>
-      <c r="E15" s="4">
-        <v>32.4</v>
-      </c>
-      <c r="F15" s="4">
-        <v>216.5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>32.3</v>
-      </c>
-      <c r="H15" s="4">
-        <v>38.7</v>
-      </c>
-      <c r="I15" s="4">
-        <v>-35.1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1028.2</v>
-      </c>
-      <c r="K15" s="4">
-        <v>19.6</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1254</v>
-      </c>
-      <c r="M15" s="4">
-        <v>19.5</v>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tools/1.xlsx
+++ b/tools/1.xlsx
@@ -28,109 +28,145 @@
 </workbook>
 </file>
 
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="ID_372B549E41954F118425AA7FB91986D5" descr="upload_post_object_v2_165115692"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4705350" cy="3562350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-</etc:cellImages>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>所有漏洞收集（包含项目已涉及和未涉及的）</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>漏洞名称</t>
-  </si>
-  <si>
-    <t>详细说明</t>
-  </si>
-  <si>
-    <t>解决方案</t>
-  </si>
-  <si>
-    <t>nacos认证授权漏洞</t>
-  </si>
-  <si>
-    <t>nacos旧版本中即使开启授权认证，但默认的加密key是固定写死的，造成信息泄露</t>
-  </si>
-  <si>
-    <t>按照最新的nacos版本进行升级部署，自定义配置key解决默认key问题</t>
-  </si>
-  <si>
-    <t>zk未授权访问</t>
-  </si>
-  <si>
-    <t>zookeeper安装部署时未增加认证，导致泄露zookeeper中的内容。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重新部署zookeeper，添加认证
-</t>
-  </si>
-  <si>
-    <t>Apache Struts类加载器安全绕过漏洞</t>
-  </si>
-  <si>
-    <t>Apache Struts框架是一个一个基于 Java Servlets,JavaBeans, 和 JavaServer Pages (JSP)的Web应用框架的开源项目。    Apache Struts 存在安全绕过漏洞，攻击者利用漏洞绕过某些安全限制和执行未经授权的操作。 参考： http://www.cnvd.org.cn/flaw/show/CNVD-2014-02702</t>
-  </si>
-  <si>
-    <t>建议下载补丁进行修复，网址如下： http://struts.apache.org/</t>
-  </si>
-  <si>
-    <t>Grafana 身份认证绕过漏洞（CVE2023-3128）</t>
-  </si>
-  <si>
-    <t>升级版本至10.0.1、9.5.5、9.4.13、9.3.16、9.2.20 
-或 8.5.27及以上</t>
-  </si>
-  <si>
-    <t>Apache RocketMQ</t>
-  </si>
-  <si>
-    <t>影响版本  5.x &lt;= 5.1.0 及4.x&lt;=4.9.6</t>
-  </si>
-  <si>
-    <t>Spring Security 身份认证绕过漏洞</t>
-  </si>
-  <si>
-    <t>影响版本 Spring Security: 6.1.0 to 6.1.1 6.0.0 to 6.0.4 5.8.0 to 5.8.4 5.7.0 to 5.7.9 5.6.0 to 5.6.11</t>
-  </si>
-  <si>
-    <t>MinIO 信息泄露漏洞</t>
-  </si>
-  <si>
-    <t>RELEASE.2023-03-20T20-16-18Z &gt;MINIO&gt; = RELEASE.2019-12-17T23-16-337</t>
-  </si>
-  <si>
-    <t>Apache Kafka ConnectJNDI注入漏洞</t>
-  </si>
-  <si>
-    <t>2.3.0 &lt;= Apache Kafka &lt;= 3.3.2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>艾德琳</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>健康状况</t>
+  </si>
+  <si>
+    <t>国籍</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>54岁</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>良好</t>
+  </si>
+  <si>
+    <t>教育背景</t>
+  </si>
+  <si>
+    <t>学位</t>
+  </si>
+  <si>
+    <t>毕业院校</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>毕业年份</t>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
+    <t>莱斯大学</t>
+  </si>
+  <si>
+    <t>通信学院</t>
+  </si>
+  <si>
+    <t>通信工程</t>
+  </si>
+  <si>
+    <t>1993年</t>
+  </si>
+  <si>
+    <t>硕士</t>
+  </si>
+  <si>
+    <t>杜克大学</t>
+  </si>
+  <si>
+    <t>计算机学院</t>
+  </si>
+  <si>
+    <t>计算机技术</t>
+  </si>
+  <si>
+    <t>1996年</t>
+  </si>
+  <si>
+    <t>博士</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t>2003年</t>
+  </si>
+  <si>
+    <t>工作信息</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>爱好</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>教授</t>
+  </si>
+  <si>
+    <t>游泳</t>
+  </si>
+  <si>
+    <t>任教科目</t>
+  </si>
+  <si>
+    <t>计算机组成原理</t>
+  </si>
+  <si>
+    <t>招生名额</t>
+  </si>
+  <si>
+    <t>研究领域</t>
+  </si>
+  <si>
+    <t>计算机体系结构</t>
+  </si>
+  <si>
+    <t>硕士名额</t>
+  </si>
+  <si>
+    <t>博士名额</t>
+  </si>
+  <si>
+    <t>任教时间段</t>
+  </si>
+  <si>
+    <t>2003年至今</t>
   </si>
 </sst>
 </file>
@@ -143,7 +179,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,29 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -331,7 +347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC8C8C8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,163 +679,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1132,146 +1145,233 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="112.125" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="18" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>25648</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6">
+        <v>15458958888</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6">
         <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="121.5" spans="1:4">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="67.5" spans="1:4">
-      <c r="A4" s="3">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="87" spans="1:4">
-      <c r="A5">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="282.75" spans="1:4">
-      <c r="A6">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="str">
-        <f>_xlfn.DISPIMG("ID_372B549E41954F118425AA7FB91986D5",1)</f>
-        <v>=DISPIMG("ID_372B549E41954F118425AA7FB91986D5",1)</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="16">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
